--- a/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 23,67</t>
+          <t>15,6; 24,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,64</t>
+          <t>19,3; 26,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,47; 23,83</t>
+          <t>18,53; 23,91</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,08; 30,6</t>
+          <t>21,03; 30,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,69</t>
+          <t>18,08; 25,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 26,99</t>
+          <t>20,86; 27,43</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 21,74</t>
+          <t>4,74; 21,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 27,99</t>
+          <t>16,68; 28,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 22,19</t>
+          <t>6,12; 21,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,72; 26,3</t>
+          <t>20,02; 26,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 27,72</t>
+          <t>10,95; 27,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 25,54</t>
+          <t>15,85; 25,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,19; 34,29</t>
+          <t>25,2; 34,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,45; 19,98</t>
+          <t>12,71; 20,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,3</t>
+          <t>17,22; 24,23</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,83; 86,13</t>
+          <t>68,07; 85,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,31; 35,45</t>
+          <t>28,35; 35,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,26</t>
+          <t>39,52; 47,19</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,03; 28,48</t>
+          <t>19,66; 28,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,08; 25,07</t>
+          <t>18,76; 24,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 26,18</t>
+          <t>20,41; 26,15</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que al menos otra persona se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97633</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>100822</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>198455</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>78812; 122121</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86215; 120180</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>176446; 227596</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>114817</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82999</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>197816</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>94981; 137588</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>69180; 98937</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>174075; 228895</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>88029</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35717</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123745</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31688; 145030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27746; 46968</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51053; 183555</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>238937</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>208196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>447133</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>207212; 273970</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>107057; 272263</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>319070; 513431</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>139360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>143939</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>283299</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>119715; 165775</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>106902; 169905</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>226726; 319019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>189514</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>242859</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>432374</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>163724; 206697</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>215813; 270884</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>395970; 472738</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>868289</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>814532</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1682821</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>663513; 966976</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>671015; 886779</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1418704; 1817765</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
